--- a/Sample_file.xlsx
+++ b/Sample_file.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
@@ -432,85 +432,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>fbsfb</t>
+          <t>022A-9661</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sdfgs</t>
+          <t>Jiro Miko Vinas</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>gbsbsf</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>fbsfb</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sdfgs</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>gbsbsf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>fbsfb</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sdfgs</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>gbsbsf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>fbsfb</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sdfgs</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>gbsbsf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>fbsfb</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdfgs</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>gbsbsf</t>
+          <t>jiromikovinas@gmail.com</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>BSIT</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>09518583657</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lucena City</t>
         </is>
       </c>
     </row>
@@ -525,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +538,23 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>022A-9661</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>jiromiko</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BSIT-1A</t>
         </is>
       </c>
     </row>

--- a/Sample_file.xlsx
+++ b/Sample_file.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Old Students" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="New Students" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sample" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -415,54 +414,93 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="18.140625" customWidth="1" min="1" max="1"/>
     <col width="18.42578125" customWidth="1" min="2" max="2"/>
-    <col width="18.140625" customWidth="1" min="3" max="3"/>
+    <col width="24.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="18.28515625" customWidth="1" min="4" max="4"/>
+    <col width="12" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="36.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Student No.</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Fullname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Contact No.</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>022A-9661</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Jiro Miko Vinas</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jiro Miko S. Viñas</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>jiromikovinas@gmail.com</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>BSIT</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>09518583657</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Lucena City</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Calmar Homes Subdivision, Lucena City</t>
         </is>
       </c>
     </row>
@@ -480,7 +518,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -510,51 +548,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>022A-9661</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01010</t>
+          <t>jiromiko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0101</t>
+          <t>BSIT-1A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>0231-1232</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>aaaaa000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>022A-9661</t>
+          <t>0123-1234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jiromiko</t>
+          <t>aaaaa000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BSIT-1A</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -569,10 +607,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -599,72 +637,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0000</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sample</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sample1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sample2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>